--- a/Docs/reestr-prav-dostupa-27.01.25_v10.xlsx
+++ b/Docs/reestr-prav-dostupa-27.01.25_v10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05F345-D713-4D35-B1A6-ED424A89AC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B6519-C12C-40B4-AA1E-6EF8FBABAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="668">
   <si>
     <t>ФИО сотрудника, имеющего права доступа для редактирования</t>
   </si>
@@ -2121,9 +2121,6 @@
     <t>Разработать АРМ</t>
   </si>
   <si>
-    <t>Прописано в html: Cредства обучения и воспитания, приспособленные для использования инвалидами и лицами с ограниченными возможностями здоровья, отсутствуют.</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -2195,6 +2192,9 @@
   </si>
   <si>
     <t>https://ачии.рф/Documents?doctype=InfObObespBesprDostupaVZdaniyaObrOrg</t>
+  </si>
+  <si>
+    <t>Формируется автоматически (ОВЗ-Помещения+ОВЗ-Оборудование)</t>
   </si>
 </sst>
 </file>
@@ -2526,37 +2526,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,37 +2582,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2622,55 +2611,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2691,7 +2638,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3065,13 +3065,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3082,9 +3082,9 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3093,26 +3093,26 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -3122,9 +3122,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="56" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3133,180 +3133,180 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="43"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="43"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="43"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="43"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="42" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3315,16 +3315,16 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
@@ -3359,7 +3359,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="9" t="s">
         <v>40</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3390,7 +3390,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="9"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="9"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3408,7 +3408,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3417,7 +3417,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3426,7 +3426,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3435,7 +3435,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3444,7 +3444,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -3453,7 +3453,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3462,7 +3462,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3489,7 +3489,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3525,7 +3525,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3534,7 +3534,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3543,7 +3543,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3552,7 +3552,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="9"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="9"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3579,7 +3579,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3588,7 +3588,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="39"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3597,7 +3597,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="9"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3606,7 +3606,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3619,7 +3619,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="2" t="s">
         <v>38</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="60"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="9" t="s">
         <v>46</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="60"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="9" t="s">
         <v>47</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="60"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="9" t="s">
         <v>48</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="60"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="9" t="s">
         <v>49</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="60"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="9" t="s">
         <v>50</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="60"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="9" t="s">
         <v>51</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="9" t="s">
         <v>52</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="60"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="9" t="s">
         <v>53</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="60"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="9" t="s">
         <v>54</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="60"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="9" t="s">
         <v>55</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="60"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="9" t="s">
         <v>56</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="60"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="9" t="s">
         <v>57</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="60"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="9" t="s">
         <v>58</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="60"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="9" t="s">
         <v>59</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="F76" s="8"/>
     </row>
     <row r="77" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="60"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="9" t="s">
         <v>19</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="60"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="9" t="s">
         <v>29</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="F78" s="8"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="60"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="9" t="s">
         <v>60</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="60"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="9" t="s">
         <v>61</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="60"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="9" t="s">
         <v>62</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="60"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="9" t="s">
         <v>63</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="61"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="9" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="39" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="40"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
         <v>46</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
         <v>47</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="40"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
         <v>48</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
         <v>50</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="40"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
         <v>51</v>
       </c>
@@ -3908,7 +3908,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="40"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="6"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3917,7 +3917,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="40"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="6"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="40"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="6"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="40"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="6"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3944,7 +3944,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="40"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="6"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="40"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="6"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3962,7 +3962,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="40"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="6"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="40"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="6"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="40"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="6"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="40"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="6"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="40"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="6"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="40"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="6"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="6"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4025,7 +4025,7 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="40"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4034,7 +4034,7 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="40"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="6"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4043,7 +4043,7 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="40"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4052,7 +4052,7 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="40"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="6"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="40"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="6"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="40"/>
+      <c r="B108" s="39"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -4078,10 +4078,10 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -4093,8 +4093,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="39"/>
-      <c r="C110" s="41"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="9" t="s">
         <v>70</v>
       </c>
@@ -4102,8 +4102,8 @@
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="39"/>
-      <c r="C111" s="41"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="9" t="s">
         <v>71</v>
       </c>
@@ -4111,13 +4111,13 @@
       <c r="F111" s="8"/>
     </row>
     <row r="112" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C112" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -4128,17 +4128,17 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="40"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="38"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="61"/>
       <c r="E113" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="40"/>
-      <c r="C114" s="58"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="11" t="s">
         <v>73</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -4161,7 +4161,7 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="39"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="7" t="s">
         <v>77</v>
       </c>
@@ -4172,7 +4172,7 @@
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="39"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="7" t="s">
         <v>78</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="7" t="s">
         <v>79</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="39"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="7" t="s">
         <v>80</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="39"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="7" t="s">
         <v>81</v>
       </c>
@@ -4216,7 +4216,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="39"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="7" t="s">
         <v>82</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="39"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="7" t="s">
         <v>83</v>
       </c>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="7" t="s">
         <v>84</v>
       </c>
@@ -4249,7 +4249,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="39"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="7" t="s">
         <v>85</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="39"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="7" t="s">
         <v>86</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="39"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="7" t="s">
         <v>87</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="39"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="7" t="s">
         <v>88</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="39"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="7" t="s">
         <v>89</v>
       </c>
@@ -4304,7 +4304,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="39"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="12"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="47"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="6" t="s">
         <v>92</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="39"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="7" t="s">
         <v>95</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="F133" s="8"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="39"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="7" t="s">
         <v>96</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="F134" s="8"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="39"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="7" t="s">
         <v>97</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="F135" s="8"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="39"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="7" t="s">
         <v>98</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="F136" s="8"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="39"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="7" t="s">
         <v>99</v>
       </c>
@@ -4393,7 +4393,7 @@
       <c r="F137" s="8"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="39"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="7" t="s">
         <v>15</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="F138" s="8"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="39"/>
+      <c r="B139" s="38"/>
       <c r="C139" s="7" t="s">
         <v>33</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="F139" s="8"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="39"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="7" t="s">
         <v>100</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="F140" s="8"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="39"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="7" t="s">
         <v>101</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="F141" s="8"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="39"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="7" t="s">
         <v>102</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="F142" s="8"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="39"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="7" t="s">
         <v>103</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="F143" s="8"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="39"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="7" t="s">
         <v>34</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="F144" s="8"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="39"/>
+      <c r="B145" s="38"/>
       <c r="C145" s="7" t="s">
         <v>104</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="F145" s="8"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="39"/>
+      <c r="B146" s="38"/>
       <c r="C146" s="7" t="s">
         <v>105</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="F146" s="8"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="39" t="s">
         <v>106</v>
       </c>
       <c r="C147" s="6" t="s">
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="148" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="40"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="6" t="s">
         <v>108</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="40"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="6" t="s">
         <v>109</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B150" s="40"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="6" t="s">
         <v>30</v>
       </c>
@@ -4516,10 +4516,10 @@
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -4533,9 +4533,9 @@
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="39"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="48" t="s">
+      <c r="B152" s="38"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="49" t="s">
         <v>113</v>
       </c>
       <c r="E152" s="9" t="s">
@@ -4546,9 +4546,9 @@
       </c>
     </row>
     <row r="153" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="39"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="48"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="49"/>
       <c r="E153" s="9" t="s">
         <v>116</v>
       </c>
@@ -4557,9 +4557,9 @@
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="39"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="48"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="49"/>
       <c r="E154" s="9" t="s">
         <v>117</v>
       </c>
@@ -4568,17 +4568,17 @@
       </c>
     </row>
     <row r="155" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="39"/>
-      <c r="C155" s="49"/>
-      <c r="D155" s="48"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="49"/>
       <c r="E155" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F155" s="8"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="39"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="50"/>
       <c r="D156" s="9" t="s">
         <v>40</v>
       </c>
@@ -4586,8 +4586,8 @@
       <c r="F156" s="8"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="39"/>
-      <c r="C157" s="49"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="9" t="s">
         <v>119</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="F157" s="8"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="39"/>
-      <c r="C158" s="49"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="50"/>
       <c r="D158" s="9" t="s">
         <v>120</v>
       </c>
@@ -4604,8 +4604,8 @@
       <c r="F158" s="8"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="39"/>
-      <c r="C159" s="49"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="50"/>
       <c r="D159" s="9" t="s">
         <v>121</v>
       </c>
@@ -4613,8 +4613,8 @@
       <c r="F159" s="8"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="39"/>
-      <c r="C160" s="49"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="50"/>
       <c r="D160" s="9" t="s">
         <v>122</v>
       </c>
@@ -4622,8 +4622,8 @@
       <c r="F160" s="8"/>
     </row>
     <row r="161" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B161" s="39"/>
-      <c r="C161" s="49"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="9" t="s">
         <v>123</v>
       </c>
@@ -4631,8 +4631,8 @@
       <c r="F161" s="8"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="39"/>
-      <c r="C162" s="49"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="50"/>
       <c r="D162" s="9" t="s">
         <v>124</v>
       </c>
@@ -4640,8 +4640,8 @@
       <c r="F162" s="8"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="39"/>
-      <c r="C163" s="49"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="50"/>
       <c r="D163" s="9" t="s">
         <v>125</v>
       </c>
@@ -4649,8 +4649,8 @@
       <c r="F163" s="8"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="39"/>
-      <c r="C164" s="49"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="50"/>
       <c r="D164" s="9" t="s">
         <v>126</v>
       </c>
@@ -4658,8 +4658,8 @@
       <c r="F164" s="8"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="39"/>
-      <c r="C165" s="49"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="50"/>
       <c r="D165" s="9" t="s">
         <v>127</v>
       </c>
@@ -4667,8 +4667,8 @@
       <c r="F165" s="8"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="39"/>
-      <c r="C166" s="49"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="50"/>
       <c r="D166" s="9" t="s">
         <v>128</v>
       </c>
@@ -4676,8 +4676,8 @@
       <c r="F166" s="8"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="39"/>
-      <c r="C167" s="49"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="9" t="s">
         <v>129</v>
       </c>
@@ -4685,8 +4685,8 @@
       <c r="F167" s="8"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="39"/>
-      <c r="C168" s="49"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="9" t="s">
         <v>130</v>
       </c>
@@ -4694,8 +4694,8 @@
       <c r="F168" s="8"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="39"/>
-      <c r="C169" s="49"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="50"/>
       <c r="D169" s="9" t="s">
         <v>131</v>
       </c>
@@ -4703,8 +4703,8 @@
       <c r="F169" s="8"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="39"/>
-      <c r="C170" s="49"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="50"/>
       <c r="D170" s="9" t="s">
         <v>132</v>
       </c>
@@ -4712,8 +4712,8 @@
       <c r="F170" s="8"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="39"/>
-      <c r="C171" s="49"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="9" t="s">
         <v>133</v>
       </c>
@@ -4721,11 +4721,11 @@
       <c r="F171" s="8"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="39"/>
-      <c r="C172" s="49" t="s">
+      <c r="B172" s="38"/>
+      <c r="C172" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="48" t="s">
+      <c r="D172" s="49" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="9" t="s">
@@ -4734,198 +4734,198 @@
       <c r="F172" s="8"/>
     </row>
     <row r="173" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B173" s="39"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="48"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="49"/>
       <c r="E173" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="8"/>
     </row>
     <row r="174" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B174" s="39"/>
-      <c r="C174" s="49"/>
-      <c r="D174" s="48"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="49"/>
       <c r="E174" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F174" s="8"/>
     </row>
     <row r="175" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B175" s="39"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="48"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="49"/>
       <c r="E175" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F175" s="8"/>
     </row>
     <row r="176" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B176" s="39"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="48"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="49"/>
       <c r="E176" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F176" s="8"/>
     </row>
     <row r="177" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B177" s="39"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="48"/>
+      <c r="B177" s="38"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="49"/>
       <c r="E177" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="8"/>
     </row>
     <row r="178" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B178" s="39"/>
-      <c r="C178" s="49"/>
-      <c r="D178" s="48"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F178" s="8"/>
     </row>
     <row r="179" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B179" s="39"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="48"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="49"/>
       <c r="E179" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F179" s="8"/>
     </row>
     <row r="180" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B180" s="39"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="48"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="49"/>
       <c r="E180" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F180" s="8"/>
     </row>
     <row r="181" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B181" s="39"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="48"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="49"/>
       <c r="E181" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F181" s="8"/>
     </row>
     <row r="182" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B182" s="39"/>
-      <c r="C182" s="49"/>
-      <c r="D182" s="48"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="49"/>
       <c r="E182" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="8"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="39"/>
-      <c r="C183" s="49"/>
-      <c r="D183" s="48"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="49"/>
       <c r="E183" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F183" s="8"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="39"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="48"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="49"/>
       <c r="E184" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F184" s="8"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="39"/>
-      <c r="C185" s="49"/>
-      <c r="D185" s="48"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="49"/>
       <c r="E185" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F185" s="8"/>
     </row>
     <row r="186" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B186" s="39"/>
-      <c r="C186" s="49"/>
-      <c r="D186" s="48"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="49"/>
       <c r="E186" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="8"/>
     </row>
     <row r="187" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B187" s="39"/>
-      <c r="C187" s="49"/>
-      <c r="D187" s="48"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="49"/>
       <c r="E187" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F187" s="8"/>
     </row>
     <row r="188" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B188" s="39"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="48"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="49"/>
       <c r="E188" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F188" s="8"/>
     </row>
     <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B189" s="39"/>
-      <c r="C189" s="49"/>
-      <c r="D189" s="48"/>
+      <c r="B189" s="38"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="49"/>
       <c r="E189" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F189" s="8"/>
     </row>
     <row r="190" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B190" s="39"/>
-      <c r="C190" s="49"/>
-      <c r="D190" s="48"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="49"/>
       <c r="E190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F190" s="8"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="39"/>
-      <c r="C191" s="49"/>
-      <c r="D191" s="48"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="49"/>
       <c r="E191" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F191" s="8"/>
     </row>
     <row r="192" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B192" s="39"/>
-      <c r="C192" s="49"/>
-      <c r="D192" s="48"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="49"/>
       <c r="E192" s="9" t="s">
         <v>134</v>
       </c>
       <c r="F192" s="8"/>
     </row>
     <row r="193" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B193" s="39"/>
-      <c r="C193" s="49"/>
-      <c r="D193" s="48"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="49"/>
       <c r="E193" s="9" t="s">
         <v>135</v>
       </c>
       <c r="F193" s="8"/>
     </row>
     <row r="194" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B194" s="39"/>
-      <c r="C194" s="49"/>
-      <c r="D194" s="48" t="s">
+      <c r="B194" s="38"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="49" t="s">
         <v>111</v>
       </c>
       <c r="E194" s="9" t="s">
@@ -4934,80 +4934,80 @@
       <c r="F194" s="8"/>
     </row>
     <row r="195" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B195" s="39"/>
-      <c r="C195" s="49"/>
-      <c r="D195" s="48"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="49"/>
       <c r="E195" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F195" s="8"/>
     </row>
     <row r="196" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B196" s="39"/>
-      <c r="C196" s="49"/>
-      <c r="D196" s="48"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="49"/>
       <c r="E196" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F196" s="8"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="39"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="48"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="49"/>
       <c r="E197" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F197" s="8"/>
     </row>
     <row r="198" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B198" s="39"/>
-      <c r="C198" s="49"/>
-      <c r="D198" s="48"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="49"/>
       <c r="E198" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F198" s="8"/>
     </row>
     <row r="199" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B199" s="39"/>
-      <c r="C199" s="49"/>
-      <c r="D199" s="48"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="49"/>
       <c r="E199" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F199" s="8"/>
     </row>
     <row r="200" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B200" s="39"/>
-      <c r="C200" s="49"/>
-      <c r="D200" s="48"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="49"/>
       <c r="E200" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F200" s="8"/>
     </row>
     <row r="201" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B201" s="39"/>
-      <c r="C201" s="49"/>
-      <c r="D201" s="48"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="49"/>
       <c r="E201" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F201" s="8"/>
     </row>
     <row r="202" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B202" s="39"/>
-      <c r="C202" s="49"/>
-      <c r="D202" s="48"/>
+      <c r="B202" s="38"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="49"/>
       <c r="E202" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F202" s="8"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="39"/>
-      <c r="C203" s="49"/>
+      <c r="B203" s="38"/>
+      <c r="C203" s="50"/>
       <c r="D203" s="9" t="s">
         <v>144</v>
       </c>
@@ -5017,8 +5017,8 @@
       <c r="F203" s="8"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="39"/>
-      <c r="C204" s="49"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="50"/>
       <c r="D204" s="9" t="s">
         <v>145</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="F204" s="8"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="40" t="s">
+      <c r="B205" s="39" t="s">
         <v>147</v>
       </c>
       <c r="C205" s="6" t="s">
@@ -5041,7 +5041,7 @@
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="40"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="6" t="s">
         <v>29</v>
       </c>
@@ -5052,7 +5052,7 @@
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="40"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="6" t="s">
         <v>52</v>
       </c>
@@ -5061,10 +5061,10 @@
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B208" s="39" t="s">
+      <c r="B208" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C208" s="50" t="s">
+      <c r="C208" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D208" s="9" t="s">
@@ -5078,9 +5078,9 @@
       </c>
     </row>
     <row r="209" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B209" s="39"/>
-      <c r="C209" s="51"/>
-      <c r="D209" s="53" t="s">
+      <c r="B209" s="38"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="54" t="s">
         <v>73</v>
       </c>
       <c r="E209" s="9" t="s">
@@ -5089,9 +5089,9 @@
       <c r="F209" s="8"/>
     </row>
     <row r="210" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B210" s="39"/>
-      <c r="C210" s="52"/>
-      <c r="D210" s="54"/>
+      <c r="B210" s="38"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="55"/>
       <c r="E210" s="9" t="s">
         <v>152</v>
       </c>
@@ -5111,7 +5111,7 @@
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="39" t="s">
+      <c r="B212" s="38" t="s">
         <v>154</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -5124,7 +5124,7 @@
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="39"/>
+      <c r="B213" s="38"/>
       <c r="C213" s="7" t="s">
         <v>156</v>
       </c>
@@ -5135,7 +5135,7 @@
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="39"/>
+      <c r="B214" s="38"/>
       <c r="C214" s="7" t="s">
         <v>157</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="F214" s="8"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="39"/>
+      <c r="B215" s="38"/>
       <c r="C215" s="7" t="s">
         <v>76</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="F215" s="8"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="40" t="s">
+      <c r="B216" s="39" t="s">
         <v>158</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="40"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="6" t="s">
         <v>160</v>
       </c>
@@ -5177,15 +5177,17 @@
   </sheetData>
   <autoFilter ref="B2:F217" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="30">
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C3:C29"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B83"/>
-    <mergeCell ref="B132:B146"/>
-    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B3:B29"/>
+    <mergeCell ref="B30:B59"/>
     <mergeCell ref="D194:D202"/>
     <mergeCell ref="B151:B204"/>
     <mergeCell ref="C172:C204"/>
@@ -5196,17 +5198,15 @@
     <mergeCell ref="D152:D155"/>
     <mergeCell ref="C151:C171"/>
     <mergeCell ref="D172:D193"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B3:B29"/>
-    <mergeCell ref="B30:B59"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B115:B129"/>
-    <mergeCell ref="B84:B108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C3:C29"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B83"/>
+    <mergeCell ref="B132:B146"/>
+    <mergeCell ref="B147:B150"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://ачии.рф/Sveden/Document" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5411,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="B167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5472,7 +5472,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="66" t="s">
         <v>235</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="35" t="s">
         <v>237</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="36" t="s">
         <v>238</v>
       </c>
@@ -5543,7 +5543,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="35" t="s">
         <v>239</v>
       </c>
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="36" t="s">
         <v>240</v>
       </c>
@@ -5589,7 +5589,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="36" t="s">
         <v>241</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="36" t="s">
         <v>242</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="19" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="29" t="s">
         <v>247</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="18" t="s">
         <v>249</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="18" t="s">
         <v>249</v>
       </c>
@@ -5717,8 +5717,8 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="72" t="s">
         <v>250</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -5745,8 +5745,8 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="27" t="s">
         <v>564</v>
       </c>
@@ -5771,8 +5771,8 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="27" t="s">
         <v>565</v>
       </c>
@@ -5797,8 +5797,8 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="27" t="s">
         <v>566</v>
       </c>
@@ -5823,8 +5823,8 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="18" t="s">
         <v>567</v>
       </c>
@@ -5849,8 +5849,8 @@
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="63" t="s">
         <v>251</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -5879,8 +5879,8 @@
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="18" t="s">
         <v>254</v>
       </c>
@@ -5907,8 +5907,8 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="18" t="s">
         <v>255</v>
       </c>
@@ -5935,8 +5935,8 @@
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="18" t="s">
         <v>256</v>
       </c>
@@ -5963,8 +5963,8 @@
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="18" t="s">
         <v>257</v>
       </c>
@@ -5991,8 +5991,8 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="27" t="s">
         <v>258</v>
       </c>
@@ -6019,8 +6019,8 @@
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="27" t="s">
         <v>260</v>
       </c>
@@ -6047,10 +6047,10 @@
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>324</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -6077,8 +6077,8 @@
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="18" t="s">
         <v>326</v>
       </c>
@@ -6103,8 +6103,8 @@
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="18" t="s">
         <v>327</v>
       </c>
@@ -6129,8 +6129,8 @@
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="18" t="s">
         <v>328</v>
       </c>
@@ -6155,8 +6155,8 @@
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="18" t="s">
         <v>329</v>
       </c>
@@ -6181,8 +6181,8 @@
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="18" t="s">
         <v>330</v>
       </c>
@@ -6207,8 +6207,8 @@
       <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="18" t="s">
         <v>331</v>
       </c>
@@ -6233,8 +6233,8 @@
       <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="63" t="s">
         <v>332</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6263,8 +6263,8 @@
       <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="18" t="s">
         <v>334</v>
       </c>
@@ -6291,8 +6291,8 @@
       <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="18" t="s">
         <v>336</v>
       </c>
@@ -6319,8 +6319,8 @@
       <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="18" t="s">
         <v>335</v>
       </c>
@@ -6347,8 +6347,8 @@
       <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="18" t="s">
         <v>337</v>
       </c>
@@ -6375,8 +6375,8 @@
       <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="18" t="s">
         <v>338</v>
       </c>
@@ -6403,8 +6403,8 @@
       <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="70"/>
+      <c r="B37" s="63" t="s">
         <v>339</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -6431,8 +6431,8 @@
       <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="67"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="18" t="s">
         <v>341</v>
       </c>
@@ -6457,8 +6457,8 @@
       <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="18" t="s">
         <v>342</v>
       </c>
@@ -6483,8 +6483,8 @@
       <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="67"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="18" t="s">
         <v>343</v>
       </c>
@@ -6509,8 +6509,8 @@
       <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="18" t="s">
         <v>344</v>
       </c>
@@ -6535,8 +6535,8 @@
       <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="18" t="s">
         <v>345</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="66" t="s">
         <v>268</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -6589,7 +6589,7 @@
       <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="18" t="s">
         <v>25</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="18" t="s">
         <v>26</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="18" t="s">
         <v>269</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="18" t="s">
         <v>270</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="18" t="s">
         <v>270</v>
       </c>
@@ -6747,8 +6747,8 @@
       <c r="L49" s="18"/>
     </row>
     <row r="50" spans="1:12" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="80" t="s">
+      <c r="A50" s="67"/>
+      <c r="B50" s="79" t="s">
         <v>276</v>
       </c>
       <c r="C50" s="18" t="s">
@@ -6775,8 +6775,8 @@
       <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="80"/>
       <c r="C51" s="18" t="s">
         <v>273</v>
       </c>
@@ -6801,8 +6801,8 @@
       <c r="L51" s="18"/>
     </row>
     <row r="52" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-      <c r="B52" s="81"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="80"/>
       <c r="C52" s="18" t="s">
         <v>275</v>
       </c>
@@ -6827,8 +6827,8 @@
       <c r="L52" s="18"/>
     </row>
     <row r="53" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="81"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="18" t="s">
         <v>274</v>
       </c>
@@ -6853,8 +6853,8 @@
       <c r="L53" s="18"/>
     </row>
     <row r="54" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
-      <c r="B54" s="81"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="18" t="s">
         <v>277</v>
       </c>
@@ -6879,8 +6879,8 @@
       <c r="L54" s="18"/>
     </row>
     <row r="55" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
-      <c r="B55" s="81"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="80"/>
       <c r="C55" s="18" t="s">
         <v>568</v>
       </c>
@@ -6905,8 +6905,8 @@
       <c r="L55" s="18"/>
     </row>
     <row r="56" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="18" t="s">
         <v>278</v>
       </c>
@@ -6931,8 +6931,8 @@
       <c r="L56" s="18"/>
     </row>
     <row r="57" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="75" t="s">
         <v>454</v>
       </c>
       <c r="C57" s="18" t="s">
@@ -6949,7 +6949,7 @@
         <v>110</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>221</v>
@@ -6961,8 +6961,8 @@
       <c r="L57" s="18"/>
     </row>
     <row r="58" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="18" t="s">
         <v>408</v>
       </c>
@@ -6989,8 +6989,8 @@
       <c r="L58" s="18"/>
     </row>
     <row r="59" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="18" t="s">
         <v>413</v>
       </c>
@@ -7017,8 +7017,8 @@
       <c r="L59" s="18"/>
     </row>
     <row r="60" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="18" t="s">
         <v>416</v>
       </c>
@@ -7045,14 +7045,14 @@
       <c r="L60" s="18"/>
     </row>
     <row r="61" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>512</v>
@@ -7071,8 +7071,8 @@
       <c r="L61" s="18"/>
     </row>
     <row r="62" spans="1:12" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="18" t="s">
         <v>420</v>
       </c>
@@ -7099,10 +7099,10 @@
       <c r="L62" s="18"/>
     </row>
     <row r="63" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="63" t="s">
         <v>283</v>
       </c>
       <c r="C63" s="22" t="s">
@@ -7131,8 +7131,8 @@
       <c r="L63" s="18"/>
     </row>
     <row r="64" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
-      <c r="B64" s="67"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="18" t="s">
         <v>286</v>
       </c>
@@ -7159,8 +7159,8 @@
       <c r="L64" s="18"/>
     </row>
     <row r="65" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="67"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="18" t="s">
         <v>287</v>
       </c>
@@ -7187,8 +7187,8 @@
       <c r="L65" s="18"/>
     </row>
     <row r="66" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
-      <c r="B66" s="67"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="18" t="s">
         <v>288</v>
       </c>
@@ -7215,8 +7215,8 @@
       <c r="L66" s="18"/>
     </row>
     <row r="67" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="18" t="s">
         <v>289</v>
       </c>
@@ -7241,8 +7241,8 @@
       <c r="L67" s="18"/>
     </row>
     <row r="68" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-      <c r="B68" s="67"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="18" t="s">
         <v>290</v>
       </c>
@@ -7267,14 +7267,14 @@
       <c r="L68" s="18"/>
     </row>
     <row r="69" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
-      <c r="B69" s="67"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="18" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>642</v>
@@ -7293,14 +7293,14 @@
       <c r="L69" s="18"/>
     </row>
     <row r="70" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="77"/>
-      <c r="B70" s="67"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="18" t="s">
         <v>292</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18" t="s">
@@ -7317,14 +7317,14 @@
       <c r="L70" s="18"/>
     </row>
     <row r="71" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="67"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
@@ -7341,8 +7341,8 @@
       <c r="L71" s="18"/>
     </row>
     <row r="72" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="77"/>
-      <c r="B72" s="68"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="18" t="s">
         <v>294</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="L72" s="18"/>
     </row>
     <row r="73" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="18" t="s">
         <v>295</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>110</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>221</v>
@@ -7393,8 +7393,8 @@
       <c r="L73" s="18"/>
     </row>
     <row r="74" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
-      <c r="B74" s="66" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="63" t="s">
         <v>569</v>
       </c>
       <c r="C74" s="18" t="s">
@@ -7421,8 +7421,8 @@
       <c r="L74" s="18"/>
     </row>
     <row r="75" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
-      <c r="B75" s="67"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="18" t="s">
         <v>297</v>
       </c>
@@ -7447,8 +7447,8 @@
       <c r="L75" s="18"/>
     </row>
     <row r="76" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
-      <c r="B76" s="67"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="18" t="s">
         <v>288</v>
       </c>
@@ -7473,8 +7473,8 @@
       <c r="L76" s="18"/>
     </row>
     <row r="77" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
-      <c r="B77" s="67"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="18" t="s">
         <v>287</v>
       </c>
@@ -7499,8 +7499,8 @@
       <c r="L77" s="18"/>
     </row>
     <row r="78" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
-      <c r="B78" s="67"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="18" t="s">
         <v>298</v>
       </c>
@@ -7525,8 +7525,8 @@
       <c r="L78" s="18"/>
     </row>
     <row r="79" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
-      <c r="B79" s="68"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="18" t="s">
         <v>299</v>
       </c>
@@ -7551,8 +7551,8 @@
       <c r="L79" s="18"/>
     </row>
     <row r="80" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
-      <c r="B80" s="66" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="63" t="s">
         <v>300</v>
       </c>
       <c r="C80" s="18" t="s">
@@ -7581,8 +7581,8 @@
       <c r="L80" s="18"/>
     </row>
     <row r="81" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
-      <c r="B81" s="67"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="18" t="s">
         <v>297</v>
       </c>
@@ -7609,8 +7609,8 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
-      <c r="B82" s="67"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="18" t="s">
         <v>288</v>
       </c>
@@ -7637,8 +7637,8 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
-      <c r="B83" s="67"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="18" t="s">
         <v>287</v>
       </c>
@@ -7665,8 +7665,8 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
-      <c r="B84" s="67"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="18" t="s">
         <v>298</v>
       </c>
@@ -7693,8 +7693,8 @@
       <c r="L84" s="18"/>
     </row>
     <row r="85" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="68"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="18" t="s">
         <v>299</v>
       </c>
@@ -7721,12 +7721,12 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-      <c r="B86" s="80" t="s">
+      <c r="A86" s="67"/>
+      <c r="B86" s="79" t="s">
         <v>417</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
@@ -7745,14 +7745,14 @@
         <v>221</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
     </row>
     <row r="87" spans="1:12" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-      <c r="B87" s="82"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="81"/>
       <c r="C87" s="18" t="s">
         <v>575</v>
       </c>
@@ -7779,16 +7779,16 @@
       <c r="L87" s="18"/>
     </row>
     <row r="88" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="62" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="88" t="s">
         <v>301</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>533</v>
@@ -7803,23 +7803,23 @@
         <v>208</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
     </row>
     <row r="89" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
-      <c r="B89" s="63"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="18" t="s">
         <v>575</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>654</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>655</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>600</v>
@@ -7835,19 +7835,19 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="18" t="s">
         <v>302</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
         <v>582</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>110</v>
@@ -7859,13 +7859,13 @@
         <v>221</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
+      <c r="A91" s="67"/>
       <c r="B91" s="18" t="s">
         <v>302</v>
       </c>
@@ -7895,8 +7895,8 @@
       <c r="L91" s="18"/>
     </row>
     <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="66" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="63" t="s">
         <v>303</v>
       </c>
       <c r="C92" s="18" t="s">
@@ -7922,8 +7922,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="67"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="18" t="s">
         <v>305</v>
       </c>
@@ -7947,8 +7947,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="67"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="18" t="s">
         <v>288</v>
       </c>
@@ -7972,8 +7972,8 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="67"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="18" t="s">
         <v>287</v>
       </c>
@@ -7997,8 +7997,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="67"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="18" t="s">
         <v>306</v>
       </c>
@@ -8022,8 +8022,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="67"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="18" t="s">
         <v>307</v>
       </c>
@@ -8047,8 +8047,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="67"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="18" t="s">
         <v>308</v>
       </c>
@@ -8072,8 +8072,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="67"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="18" t="s">
         <v>309</v>
       </c>
@@ -8097,8 +8097,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="67"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="18" t="s">
         <v>310</v>
       </c>
@@ -8119,8 +8119,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="67"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="18" t="s">
         <v>311</v>
       </c>
@@ -8144,8 +8144,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
-      <c r="B102" s="67"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="18" t="s">
         <v>312</v>
       </c>
@@ -8166,8 +8166,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
-      <c r="B103" s="68"/>
+      <c r="A103" s="67"/>
+      <c r="B103" s="65"/>
       <c r="C103" s="18" t="s">
         <v>312</v>
       </c>
@@ -8191,8 +8191,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
-      <c r="B104" s="66" t="s">
+      <c r="A104" s="67"/>
+      <c r="B104" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -8218,8 +8218,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="67"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="18" t="s">
         <v>305</v>
       </c>
@@ -8243,8 +8243,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-      <c r="B106" s="67"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="18" t="s">
         <v>288</v>
       </c>
@@ -8268,8 +8268,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="67"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="18" t="s">
         <v>287</v>
       </c>
@@ -8293,8 +8293,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="77"/>
-      <c r="B108" s="67"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="18" t="s">
         <v>306</v>
       </c>
@@ -8318,8 +8318,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-      <c r="B109" s="67"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="18" t="s">
         <v>307</v>
       </c>
@@ -8343,8 +8343,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="67"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="18" t="s">
         <v>308</v>
       </c>
@@ -8368,8 +8368,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="67"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="64"/>
       <c r="C111" s="18" t="s">
         <v>309</v>
       </c>
@@ -8393,8 +8393,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="67"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="64"/>
       <c r="C112" s="18" t="s">
         <v>310</v>
       </c>
@@ -8418,8 +8418,8 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-      <c r="B113" s="67"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="64"/>
       <c r="C113" s="18" t="s">
         <v>311</v>
       </c>
@@ -8443,8 +8443,8 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
-      <c r="B114" s="68"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="65"/>
       <c r="C114" s="18" t="s">
         <v>312</v>
       </c>
@@ -8468,8 +8468,8 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-      <c r="B115" s="66" t="s">
+      <c r="A115" s="67"/>
+      <c r="B115" s="63" t="s">
         <v>314</v>
       </c>
       <c r="C115" s="18" t="s">
@@ -8492,8 +8492,8 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
-      <c r="B116" s="67"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="64"/>
       <c r="C116" s="18" t="s">
         <v>305</v>
       </c>
@@ -8514,8 +8514,8 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
-      <c r="B117" s="67"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="64"/>
       <c r="C117" s="18" t="s">
         <v>315</v>
       </c>
@@ -8536,8 +8536,8 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-      <c r="B118" s="67"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="64"/>
       <c r="C118" s="18" t="s">
         <v>287</v>
       </c>
@@ -8559,8 +8559,8 @@
       <c r="J118" s="19"/>
     </row>
     <row r="119" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
-      <c r="B119" s="67"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="18" t="s">
         <v>288</v>
       </c>
@@ -8582,8 +8582,8 @@
       <c r="J119" s="19"/>
     </row>
     <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
-      <c r="B120" s="67"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="64"/>
       <c r="C120" s="18" t="s">
         <v>316</v>
       </c>
@@ -8605,8 +8605,8 @@
       <c r="J120" s="19"/>
     </row>
     <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
-      <c r="B121" s="67"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="18" t="s">
         <v>317</v>
       </c>
@@ -8627,8 +8627,8 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
-      <c r="B122" s="68"/>
+      <c r="A122" s="67"/>
+      <c r="B122" s="65"/>
       <c r="C122" s="18" t="s">
         <v>318</v>
       </c>
@@ -8649,8 +8649,8 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-      <c r="B123" s="66" t="s">
+      <c r="A123" s="67"/>
+      <c r="B123" s="63" t="s">
         <v>319</v>
       </c>
       <c r="C123" s="18" t="s">
@@ -8677,8 +8677,8 @@
       <c r="L123" s="18"/>
     </row>
     <row r="124" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
-      <c r="B124" s="67"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="64"/>
       <c r="C124" s="18" t="s">
         <v>321</v>
       </c>
@@ -8703,8 +8703,8 @@
       <c r="L124" s="18"/>
     </row>
     <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
-      <c r="B125" s="67"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="64"/>
       <c r="C125" s="18" t="s">
         <v>287</v>
       </c>
@@ -8725,8 +8725,8 @@
       </c>
     </row>
     <row r="126" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
-      <c r="B126" s="67"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="64"/>
       <c r="C126" s="18" t="s">
         <v>322</v>
       </c>
@@ -8751,8 +8751,8 @@
       <c r="L126" s="18"/>
     </row>
     <row r="127" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="79"/>
-      <c r="B127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="65"/>
       <c r="C127" s="18" t="s">
         <v>323</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="L127" s="18"/>
     </row>
     <row r="128" spans="1:12" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="69" t="s">
+      <c r="A128" s="76" t="s">
         <v>347</v>
       </c>
       <c r="B128" s="18" t="s">
@@ -8805,14 +8805,14 @@
       <c r="L128" s="18"/>
     </row>
     <row r="129" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="70"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="18" t="s">
         <v>349</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F129" s="18" t="s">
         <v>470</v>
@@ -8831,14 +8831,14 @@
       <c r="L129" s="18"/>
     </row>
     <row r="130" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="70"/>
+      <c r="A130" s="77"/>
       <c r="B130" s="18" t="s">
         <v>350</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F130" s="18" t="s">
         <v>470</v>
@@ -8857,14 +8857,14 @@
       <c r="L130" s="18"/>
     </row>
     <row r="131" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="71"/>
+      <c r="A131" s="78"/>
       <c r="B131" s="18" t="s">
         <v>351</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
       <c r="E131" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>470</v>
@@ -8883,10 +8883,10 @@
       <c r="L131" s="18"/>
     </row>
     <row r="132" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="B132" s="66" t="s">
+      <c r="B132" s="63" t="s">
         <v>354</v>
       </c>
       <c r="C132" s="18" t="s">
@@ -8913,8 +8913,8 @@
       <c r="L132" s="18"/>
     </row>
     <row r="133" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="84"/>
-      <c r="B133" s="67"/>
+      <c r="A133" s="83"/>
+      <c r="B133" s="64"/>
       <c r="C133" s="18" t="s">
         <v>356</v>
       </c>
@@ -8939,8 +8939,8 @@
       <c r="L133" s="18"/>
     </row>
     <row r="134" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="84"/>
-      <c r="B134" s="67"/>
+      <c r="A134" s="83"/>
+      <c r="B134" s="64"/>
       <c r="C134" s="18" t="s">
         <v>357</v>
       </c>
@@ -8965,8 +8965,8 @@
       <c r="L134" s="18"/>
     </row>
     <row r="135" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="84"/>
-      <c r="B135" s="68"/>
+      <c r="A135" s="83"/>
+      <c r="B135" s="65"/>
       <c r="C135" s="18" t="s">
         <v>358</v>
       </c>
@@ -8991,8 +8991,8 @@
       <c r="L135" s="18"/>
     </row>
     <row r="136" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="84"/>
-      <c r="B136" s="66" t="s">
+      <c r="A136" s="83"/>
+      <c r="B136" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C136" s="18" t="s">
@@ -9019,8 +9019,8 @@
       <c r="L136" s="18"/>
     </row>
     <row r="137" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="84"/>
-      <c r="B137" s="67"/>
+      <c r="A137" s="83"/>
+      <c r="B137" s="64"/>
       <c r="C137" s="18" t="s">
         <v>356</v>
       </c>
@@ -9045,8 +9045,8 @@
       <c r="L137" s="18"/>
     </row>
     <row r="138" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="84"/>
-      <c r="B138" s="67"/>
+      <c r="A138" s="83"/>
+      <c r="B138" s="64"/>
       <c r="C138" s="18" t="s">
         <v>357</v>
       </c>
@@ -9071,8 +9071,8 @@
       <c r="L138" s="18"/>
     </row>
     <row r="139" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="84"/>
-      <c r="B139" s="68"/>
+      <c r="A139" s="83"/>
+      <c r="B139" s="65"/>
       <c r="C139" s="18" t="s">
         <v>358</v>
       </c>
@@ -9097,8 +9097,8 @@
       <c r="L139" s="18"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="84"/>
-      <c r="B140" s="66" t="s">
+      <c r="A140" s="83"/>
+      <c r="B140" s="63" t="s">
         <v>418</v>
       </c>
       <c r="C140" s="18" t="s">
@@ -9121,8 +9121,8 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="84"/>
-      <c r="B141" s="67"/>
+      <c r="A141" s="83"/>
+      <c r="B141" s="64"/>
       <c r="C141" s="18" t="s">
         <v>355</v>
       </c>
@@ -9143,8 +9143,8 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="84"/>
-      <c r="B142" s="67"/>
+      <c r="A142" s="83"/>
+      <c r="B142" s="64"/>
       <c r="C142" s="18" t="s">
         <v>356</v>
       </c>
@@ -9165,8 +9165,8 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="84"/>
-      <c r="B143" s="67"/>
+      <c r="A143" s="83"/>
+      <c r="B143" s="64"/>
       <c r="C143" s="18" t="s">
         <v>357</v>
       </c>
@@ -9187,8 +9187,8 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="84"/>
-      <c r="B144" s="68"/>
+      <c r="A144" s="83"/>
+      <c r="B144" s="65"/>
       <c r="C144" s="18" t="s">
         <v>358</v>
       </c>
@@ -9209,8 +9209,8 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="84"/>
-      <c r="B145" s="66" t="s">
+      <c r="A145" s="83"/>
+      <c r="B145" s="63" t="s">
         <v>419</v>
       </c>
       <c r="C145" s="18" t="s">
@@ -9233,8 +9233,8 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="67"/>
+      <c r="A146" s="83"/>
+      <c r="B146" s="64"/>
       <c r="C146" s="18" t="s">
         <v>355</v>
       </c>
@@ -9255,8 +9255,8 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="84"/>
-      <c r="B147" s="67"/>
+      <c r="A147" s="83"/>
+      <c r="B147" s="64"/>
       <c r="C147" s="18" t="s">
         <v>356</v>
       </c>
@@ -9277,8 +9277,8 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="67"/>
+      <c r="A148" s="83"/>
+      <c r="B148" s="64"/>
       <c r="C148" s="18" t="s">
         <v>357</v>
       </c>
@@ -9299,8 +9299,8 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="85"/>
-      <c r="B149" s="68"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="65"/>
       <c r="C149" s="18" t="s">
         <v>358</v>
       </c>
@@ -9321,7 +9321,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="69" t="s">
+      <c r="A150" s="76" t="s">
         <v>360</v>
       </c>
       <c r="B150" s="18" t="s">
@@ -9344,7 +9344,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
+      <c r="A151" s="77"/>
       <c r="B151" s="18" t="s">
         <v>362</v>
       </c>
@@ -9365,7 +9365,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
+      <c r="A152" s="77"/>
       <c r="B152" s="18" t="s">
         <v>363</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="L152" s="18"/>
     </row>
     <row r="153" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="70"/>
+      <c r="A153" s="77"/>
       <c r="B153" s="18" t="s">
         <v>364</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
+      <c r="A154" s="77"/>
       <c r="B154" s="18" t="s">
         <v>365</v>
       </c>
@@ -9443,7 +9443,7 @@
       <c r="L154" s="18"/>
     </row>
     <row r="155" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="70"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="18" t="s">
         <v>366</v>
       </c>
@@ -9469,7 +9469,7 @@
       <c r="L155" s="18"/>
     </row>
     <row r="156" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="70"/>
+      <c r="A156" s="77"/>
       <c r="B156" s="18" t="s">
         <v>367</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="L156" s="18"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="70"/>
+      <c r="A157" s="77"/>
       <c r="B157" s="18" t="s">
         <v>368</v>
       </c>
@@ -9516,7 +9516,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="70"/>
+      <c r="A158" s="77"/>
       <c r="B158" s="18" t="s">
         <v>369</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="L158" s="18"/>
     </row>
     <row r="159" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="70"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="18" t="s">
         <v>370</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="L159" s="18"/>
     </row>
     <row r="160" spans="1:12" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
+      <c r="A160" s="78"/>
       <c r="B160" s="31" t="s">
         <v>371</v>
       </c>
@@ -9594,10 +9594,10 @@
       <c r="L160" s="18"/>
     </row>
     <row r="161" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="69" t="s">
+      <c r="A161" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="B161" s="66" t="s">
+      <c r="B161" s="63" t="s">
         <v>373</v>
       </c>
       <c r="C161" s="18" t="s">
@@ -9626,8 +9626,8 @@
       <c r="L161" s="18"/>
     </row>
     <row r="162" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A162" s="70"/>
-      <c r="B162" s="67"/>
+      <c r="A162" s="77"/>
+      <c r="B162" s="64"/>
       <c r="C162" s="18" t="s">
         <v>375</v>
       </c>
@@ -9654,8 +9654,8 @@
       <c r="L162" s="18"/>
     </row>
     <row r="163" spans="1:17" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
-      <c r="B163" s="67"/>
+      <c r="A163" s="77"/>
+      <c r="B163" s="64"/>
       <c r="C163" s="18" t="s">
         <v>376</v>
       </c>
@@ -9682,20 +9682,20 @@
       <c r="L163" s="18"/>
     </row>
     <row r="164" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A164" s="70"/>
-      <c r="B164" s="68"/>
+      <c r="A164" s="77"/>
+      <c r="B164" s="65"/>
       <c r="C164" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>618</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H164" s="18" t="s">
         <v>412</v>
@@ -9715,8 +9715,8 @@
       <c r="Q164" s="19"/>
     </row>
     <row r="165" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="70"/>
-      <c r="B165" s="66" t="s">
+      <c r="A165" s="77"/>
+      <c r="B165" s="63" t="s">
         <v>378</v>
       </c>
       <c r="C165" s="18" t="s">
@@ -9745,8 +9745,8 @@
       <c r="L165" s="18"/>
     </row>
     <row r="166" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="70"/>
-      <c r="B166" s="67"/>
+      <c r="A166" s="77"/>
+      <c r="B166" s="64"/>
       <c r="C166" s="18" t="s">
         <v>379</v>
       </c>
@@ -9773,8 +9773,8 @@
       <c r="L166" s="18"/>
     </row>
     <row r="167" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="70"/>
-      <c r="B167" s="67"/>
+      <c r="A167" s="77"/>
+      <c r="B167" s="64"/>
       <c r="C167" s="18" t="s">
         <v>380</v>
       </c>
@@ -9801,20 +9801,20 @@
       <c r="L167" s="18"/>
     </row>
     <row r="168" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="70"/>
-      <c r="B168" s="68"/>
+      <c r="A168" s="77"/>
+      <c r="B168" s="65"/>
       <c r="C168" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F168" s="26" t="s">
         <v>558</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H168" s="18" t="s">
         <v>412</v>
@@ -9834,8 +9834,8 @@
       <c r="Q168" s="19"/>
     </row>
     <row r="169" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="70"/>
-      <c r="B169" s="66" t="s">
+      <c r="A169" s="77"/>
+      <c r="B169" s="63" t="s">
         <v>381</v>
       </c>
       <c r="C169" s="18" t="s">
@@ -9862,8 +9862,8 @@
       <c r="L169" s="18"/>
     </row>
     <row r="170" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="70"/>
-      <c r="B170" s="67"/>
+      <c r="A170" s="77"/>
+      <c r="B170" s="64"/>
       <c r="C170" s="18" t="s">
         <v>383</v>
       </c>
@@ -9888,8 +9888,8 @@
       <c r="L170" s="18"/>
     </row>
     <row r="171" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="70"/>
-      <c r="B171" s="67"/>
+      <c r="A171" s="77"/>
+      <c r="B171" s="64"/>
       <c r="C171" s="18" t="s">
         <v>385</v>
       </c>
@@ -9914,8 +9914,8 @@
       <c r="L171" s="18"/>
     </row>
     <row r="172" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="70"/>
-      <c r="B172" s="67"/>
+      <c r="A172" s="77"/>
+      <c r="B172" s="64"/>
       <c r="C172" s="18" t="s">
         <v>384</v>
       </c>
@@ -9940,8 +9940,8 @@
       <c r="L172" s="18"/>
     </row>
     <row r="173" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" s="70"/>
-      <c r="B173" s="68"/>
+      <c r="A173" s="77"/>
+      <c r="B173" s="65"/>
       <c r="C173" s="18" t="s">
         <v>377</v>
       </c>
@@ -9966,8 +9966,8 @@
       <c r="L173" s="18"/>
     </row>
     <row r="174" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A174" s="70"/>
-      <c r="B174" s="66" t="s">
+      <c r="A174" s="77"/>
+      <c r="B174" s="63" t="s">
         <v>386</v>
       </c>
       <c r="C174" s="18" t="s">
@@ -9994,8 +9994,8 @@
       <c r="L174" s="18"/>
     </row>
     <row r="175" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A175" s="70"/>
-      <c r="B175" s="67"/>
+      <c r="A175" s="77"/>
+      <c r="B175" s="64"/>
       <c r="C175" s="18" t="s">
         <v>383</v>
       </c>
@@ -10020,8 +10020,8 @@
       <c r="L175" s="18"/>
     </row>
     <row r="176" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A176" s="70"/>
-      <c r="B176" s="67"/>
+      <c r="A176" s="77"/>
+      <c r="B176" s="64"/>
       <c r="C176" s="18" t="s">
         <v>385</v>
       </c>
@@ -10046,8 +10046,8 @@
       <c r="L176" s="18"/>
     </row>
     <row r="177" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" s="70"/>
-      <c r="B177" s="67"/>
+      <c r="A177" s="77"/>
+      <c r="B177" s="64"/>
       <c r="C177" s="18" t="s">
         <v>384</v>
       </c>
@@ -10072,8 +10072,8 @@
       <c r="L177" s="18"/>
     </row>
     <row r="178" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A178" s="70"/>
-      <c r="B178" s="68"/>
+      <c r="A178" s="77"/>
+      <c r="B178" s="65"/>
       <c r="C178" s="18" t="s">
         <v>377</v>
       </c>
@@ -10098,20 +10098,20 @@
       <c r="L178" s="18"/>
     </row>
     <row r="179" spans="1:17" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="70"/>
+      <c r="A179" s="77"/>
       <c r="B179" s="18" t="s">
         <v>387</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="92"/>
+      <c r="D179" s="37"/>
       <c r="E179" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="F179" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="F179" s="26" t="s">
-        <v>667</v>
-      </c>
       <c r="G179" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H179" s="18" t="s">
         <v>412</v>
@@ -10131,7 +10131,7 @@
       <c r="Q179" s="19"/>
     </row>
     <row r="180" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="70"/>
+      <c r="A180" s="77"/>
       <c r="B180" s="18" t="s">
         <v>388</v>
       </c>
@@ -10148,20 +10148,18 @@
       <c r="K180" s="18"/>
       <c r="L180" s="18"/>
     </row>
-    <row r="181" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="70"/>
+    <row r="181" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="77"/>
       <c r="B181" s="18" t="s">
         <v>389</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="23"/>
+      <c r="D181" s="37"/>
       <c r="E181" s="18" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="F181" s="18"/>
-      <c r="G181" s="18" t="s">
-        <v>649</v>
-      </c>
+      <c r="G181" s="18"/>
       <c r="H181" s="18" t="s">
         <v>412</v>
       </c>
@@ -10180,7 +10178,7 @@
       <c r="Q181" s="19"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="70"/>
+      <c r="A182" s="77"/>
       <c r="B182" s="18" t="s">
         <v>390</v>
       </c>
@@ -10198,7 +10196,7 @@
       </c>
     </row>
     <row r="183" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="70"/>
+      <c r="A183" s="77"/>
       <c r="B183" s="18" t="s">
         <v>391</v>
       </c>
@@ -10214,14 +10212,14 @@
         <v>649</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J183" s="18"/>
       <c r="K183" s="18"/>
-      <c r="L183" s="64" t="s">
+      <c r="L183" s="91" t="s">
         <v>622</v>
       </c>
       <c r="M183" s="19"/>
@@ -10231,7 +10229,7 @@
       <c r="Q183" s="19"/>
     </row>
     <row r="184" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="70"/>
+      <c r="A184" s="77"/>
       <c r="B184" s="18" t="s">
         <v>392</v>
       </c>
@@ -10247,14 +10245,14 @@
         <v>649</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J184" s="18"/>
       <c r="K184" s="18"/>
-      <c r="L184" s="65"/>
+      <c r="L184" s="92"/>
       <c r="M184" s="19"/>
       <c r="N184" s="19"/>
       <c r="O184" s="19"/>
@@ -10262,7 +10260,7 @@
       <c r="Q184" s="19"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" s="70"/>
+      <c r="A185" s="77"/>
       <c r="B185" s="18" t="s">
         <v>393</v>
       </c>
@@ -10280,7 +10278,7 @@
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A186" s="70"/>
+      <c r="A186" s="77"/>
       <c r="B186" s="18" t="s">
         <v>394</v>
       </c>
@@ -10298,7 +10296,7 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A187" s="70"/>
+      <c r="A187" s="77"/>
       <c r="B187" s="18" t="s">
         <v>395</v>
       </c>
@@ -10316,7 +10314,7 @@
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A188" s="70"/>
+      <c r="A188" s="77"/>
       <c r="B188" s="18" t="s">
         <v>396</v>
       </c>
@@ -10334,7 +10332,7 @@
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="70"/>
+      <c r="A189" s="77"/>
       <c r="B189" s="18" t="s">
         <v>397</v>
       </c>
@@ -10352,7 +10350,7 @@
       </c>
     </row>
     <row r="190" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="70"/>
+      <c r="A190" s="77"/>
       <c r="B190" s="18" t="s">
         <v>398</v>
       </c>
@@ -10383,7 +10381,7 @@
       <c r="Q190" s="19"/>
     </row>
     <row r="191" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="70"/>
+      <c r="A191" s="77"/>
       <c r="B191" s="18" t="s">
         <v>399</v>
       </c>
@@ -10409,7 +10407,7 @@
       <c r="L191" s="18"/>
     </row>
     <row r="192" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="70"/>
+      <c r="A192" s="77"/>
       <c r="B192" s="18" t="s">
         <v>400</v>
       </c>
@@ -10437,7 +10435,7 @@
       <c r="L192" s="18"/>
     </row>
     <row r="193" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A193" s="70"/>
+      <c r="A193" s="77"/>
       <c r="B193" s="18" t="s">
         <v>401</v>
       </c>
@@ -10463,7 +10461,7 @@
       <c r="L193" s="18"/>
     </row>
     <row r="194" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A194" s="70"/>
+      <c r="A194" s="77"/>
       <c r="B194" s="18" t="s">
         <v>402</v>
       </c>
@@ -10489,7 +10487,7 @@
       <c r="L194" s="18"/>
     </row>
     <row r="195" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A195" s="70"/>
+      <c r="A195" s="77"/>
       <c r="B195" s="18" t="s">
         <v>403</v>
       </c>
@@ -10517,7 +10515,7 @@
       <c r="L195" s="18"/>
     </row>
     <row r="196" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="70"/>
+      <c r="A196" s="77"/>
       <c r="B196" s="18" t="s">
         <v>404</v>
       </c>
@@ -10545,7 +10543,7 @@
       <c r="L196" s="18"/>
     </row>
     <row r="197" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="70"/>
+      <c r="A197" s="77"/>
       <c r="B197" s="18" t="s">
         <v>405</v>
       </c>
@@ -10571,7 +10569,7 @@
       <c r="L197" s="18"/>
     </row>
     <row r="198" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="71"/>
+      <c r="A198" s="78"/>
       <c r="B198" s="18" t="s">
         <v>406</v>
       </c>
@@ -10599,10 +10597,10 @@
       <c r="L198" s="18"/>
     </row>
     <row r="199" spans="1:17" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="69" t="s">
+      <c r="A199" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="B199" s="62" t="s">
+      <c r="B199" s="88" t="s">
         <v>408</v>
       </c>
       <c r="C199" s="18" t="s">
@@ -10636,8 +10634,8 @@
       <c r="Q199" s="19"/>
     </row>
     <row r="200" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="70"/>
-      <c r="B200" s="75"/>
+      <c r="A200" s="77"/>
+      <c r="B200" s="89"/>
       <c r="C200" s="18" t="s">
         <v>544</v>
       </c>
@@ -10662,8 +10660,8 @@
       <c r="L200" s="18"/>
     </row>
     <row r="201" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" s="70"/>
-      <c r="B201" s="63"/>
+      <c r="A201" s="77"/>
+      <c r="B201" s="90"/>
       <c r="C201" s="18" t="s">
         <v>546</v>
       </c>
@@ -10688,7 +10686,7 @@
       <c r="L201" s="18"/>
     </row>
     <row r="202" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="70"/>
+      <c r="A202" s="77"/>
       <c r="B202" s="18" t="s">
         <v>409</v>
       </c>
@@ -10715,7 +10713,7 @@
       <c r="Q202" s="19"/>
     </row>
     <row r="203" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="70"/>
+      <c r="A203" s="77"/>
       <c r="B203" s="18" t="s">
         <v>411</v>
       </c>
@@ -10742,7 +10740,7 @@
       <c r="Q203" s="19"/>
     </row>
     <row r="204" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="70"/>
+      <c r="A204" s="77"/>
       <c r="B204" s="18" t="s">
         <v>399</v>
       </c>
@@ -10775,7 +10773,7 @@
       <c r="Q204" s="19"/>
     </row>
     <row r="205" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" s="70"/>
+      <c r="A205" s="77"/>
       <c r="B205" s="18" t="s">
         <v>400</v>
       </c>
@@ -10808,7 +10806,7 @@
       <c r="Q205" s="19"/>
     </row>
     <row r="206" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A206" s="70"/>
+      <c r="A206" s="77"/>
       <c r="B206" s="18" t="s">
         <v>401</v>
       </c>
@@ -10841,7 +10839,7 @@
       <c r="Q206" s="19"/>
     </row>
     <row r="207" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A207" s="70"/>
+      <c r="A207" s="77"/>
       <c r="B207" s="18" t="s">
         <v>402</v>
       </c>
@@ -10874,7 +10872,7 @@
       <c r="Q207" s="19"/>
     </row>
     <row r="208" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A208" s="70"/>
+      <c r="A208" s="77"/>
       <c r="B208" s="18" t="s">
         <v>403</v>
       </c>
@@ -10907,7 +10905,7 @@
       <c r="Q208" s="19"/>
     </row>
     <row r="209" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="70"/>
+      <c r="A209" s="77"/>
       <c r="B209" s="18" t="s">
         <v>404</v>
       </c>
@@ -10940,7 +10938,7 @@
       <c r="Q209" s="19"/>
     </row>
     <row r="210" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="71"/>
+      <c r="A210" s="78"/>
       <c r="B210" s="18" t="s">
         <v>413</v>
       </c>
@@ -10968,7 +10966,7 @@
       <c r="L210" s="18"/>
     </row>
     <row r="211" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A211" s="69" t="s">
+      <c r="A211" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B211" s="18" t="s">
@@ -10996,7 +10994,7 @@
       <c r="L211" s="18"/>
     </row>
     <row r="212" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A212" s="70"/>
+      <c r="A212" s="77"/>
       <c r="B212" s="18" t="s">
         <v>29</v>
       </c>
@@ -11022,7 +11020,7 @@
       <c r="L212" s="18"/>
     </row>
     <row r="213" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A213" s="70"/>
+      <c r="A213" s="77"/>
       <c r="B213" s="18" t="s">
         <v>420</v>
       </c>
@@ -11048,7 +11046,7 @@
       <c r="L213" s="18"/>
     </row>
     <row r="214" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="71"/>
+      <c r="A214" s="78"/>
       <c r="B214" s="18" t="s">
         <v>421</v>
       </c>
@@ -11066,7 +11064,7 @@
       </c>
     </row>
     <row r="215" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A215" s="69" t="s">
+      <c r="A215" s="76" t="s">
         <v>422</v>
       </c>
       <c r="B215" s="18" t="s">
@@ -11094,7 +11092,7 @@
       <c r="L215" s="18"/>
     </row>
     <row r="216" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A216" s="70"/>
+      <c r="A216" s="77"/>
       <c r="B216" s="18" t="s">
         <v>424</v>
       </c>
@@ -11120,7 +11118,7 @@
       <c r="L216" s="18"/>
     </row>
     <row r="217" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A217" s="70"/>
+      <c r="A217" s="77"/>
       <c r="B217" s="18" t="s">
         <v>425</v>
       </c>
@@ -11146,7 +11144,7 @@
       <c r="L217" s="18"/>
     </row>
     <row r="218" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A218" s="70"/>
+      <c r="A218" s="77"/>
       <c r="B218" s="18" t="s">
         <v>426</v>
       </c>
@@ -11172,8 +11170,8 @@
       <c r="L218" s="18"/>
     </row>
     <row r="219" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="70"/>
-      <c r="B219" s="66" t="s">
+      <c r="A219" s="77"/>
+      <c r="B219" s="63" t="s">
         <v>108</v>
       </c>
       <c r="C219" s="18" t="s">
@@ -11200,8 +11198,8 @@
       <c r="L219" s="18"/>
     </row>
     <row r="220" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A220" s="70"/>
-      <c r="B220" s="67"/>
+      <c r="A220" s="77"/>
+      <c r="B220" s="64"/>
       <c r="C220" s="18" t="s">
         <v>428</v>
       </c>
@@ -11226,8 +11224,8 @@
       <c r="L220" s="18"/>
     </row>
     <row r="221" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A221" s="70"/>
-      <c r="B221" s="68"/>
+      <c r="A221" s="77"/>
+      <c r="B221" s="65"/>
       <c r="C221" s="18" t="s">
         <v>429</v>
       </c>
@@ -11252,7 +11250,7 @@
       <c r="L221" s="18"/>
     </row>
     <row r="222" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="71"/>
+      <c r="A222" s="78"/>
       <c r="B222" s="18" t="s">
         <v>430</v>
       </c>
@@ -11278,7 +11276,7 @@
       <c r="L222" s="18"/>
     </row>
     <row r="223" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="72" t="s">
+      <c r="A223" s="85" t="s">
         <v>432</v>
       </c>
       <c r="B223" s="18" t="s">
@@ -11306,7 +11304,7 @@
       <c r="L223" s="18"/>
     </row>
     <row r="224" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="73"/>
+      <c r="A224" s="86"/>
       <c r="B224" s="18" t="s">
         <v>305</v>
       </c>
@@ -11332,7 +11330,7 @@
       <c r="L224" s="18"/>
     </row>
     <row r="225" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A225" s="73"/>
+      <c r="A225" s="86"/>
       <c r="B225" s="18" t="s">
         <v>288</v>
       </c>
@@ -11358,7 +11356,7 @@
       <c r="L225" s="18"/>
     </row>
     <row r="226" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A226" s="73"/>
+      <c r="A226" s="86"/>
       <c r="B226" s="18" t="s">
         <v>287</v>
       </c>
@@ -11384,7 +11382,7 @@
       <c r="L226" s="18"/>
     </row>
     <row r="227" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A227" s="73"/>
+      <c r="A227" s="86"/>
       <c r="B227" s="18" t="s">
         <v>434</v>
       </c>
@@ -11410,7 +11408,7 @@
       <c r="L227" s="18"/>
     </row>
     <row r="228" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" s="73"/>
+      <c r="A228" s="86"/>
       <c r="B228" s="18" t="s">
         <v>289</v>
       </c>
@@ -11436,7 +11434,7 @@
       <c r="L228" s="18"/>
     </row>
     <row r="229" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A229" s="73"/>
+      <c r="A229" s="86"/>
       <c r="B229" s="18" t="s">
         <v>435</v>
       </c>
@@ -11462,7 +11460,7 @@
       <c r="L229" s="18"/>
     </row>
     <row r="230" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A230" s="73"/>
+      <c r="A230" s="86"/>
       <c r="B230" s="18" t="s">
         <v>436</v>
       </c>
@@ -11488,7 +11486,7 @@
       <c r="L230" s="18"/>
     </row>
     <row r="231" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A231" s="73"/>
+      <c r="A231" s="86"/>
       <c r="B231" s="18" t="s">
         <v>437</v>
       </c>
@@ -11514,7 +11512,7 @@
       <c r="L231" s="18"/>
     </row>
     <row r="232" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" s="74"/>
+      <c r="A232" s="87"/>
       <c r="B232" s="18" t="s">
         <v>438</v>
       </c>
@@ -11540,10 +11538,10 @@
       <c r="L232" s="18"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="69" t="s">
+      <c r="A233" s="76" t="s">
         <v>439</v>
       </c>
-      <c r="B233" s="66" t="s">
+      <c r="B233" s="63" t="s">
         <v>440</v>
       </c>
       <c r="C233" s="18" t="s">
@@ -11563,8 +11561,8 @@
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="70"/>
-      <c r="B234" s="67"/>
+      <c r="A234" s="77"/>
+      <c r="B234" s="64"/>
       <c r="C234" s="18" t="s">
         <v>442</v>
       </c>
@@ -11582,8 +11580,8 @@
       </c>
     </row>
     <row r="235" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="71"/>
-      <c r="B235" s="68"/>
+      <c r="A235" s="78"/>
+      <c r="B235" s="65"/>
       <c r="C235" s="18" t="s">
         <v>443</v>
       </c>
@@ -11601,10 +11599,10 @@
       </c>
     </row>
     <row r="236" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="69" t="s">
+      <c r="A236" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="B236" s="66" t="s">
+      <c r="B236" s="63" t="s">
         <v>445</v>
       </c>
       <c r="C236" s="18" t="s">
@@ -11631,8 +11629,8 @@
       <c r="L236" s="18"/>
     </row>
     <row r="237" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A237" s="70"/>
-      <c r="B237" s="67"/>
+      <c r="A237" s="77"/>
+      <c r="B237" s="64"/>
       <c r="C237" s="18" t="s">
         <v>383</v>
       </c>
@@ -11657,8 +11655,8 @@
       <c r="L237" s="18"/>
     </row>
     <row r="238" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A238" s="70"/>
-      <c r="B238" s="67"/>
+      <c r="A238" s="77"/>
+      <c r="B238" s="64"/>
       <c r="C238" s="18" t="s">
         <v>385</v>
       </c>
@@ -11683,8 +11681,8 @@
       <c r="L238" s="18"/>
     </row>
     <row r="239" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A239" s="70"/>
-      <c r="B239" s="67"/>
+      <c r="A239" s="77"/>
+      <c r="B239" s="64"/>
       <c r="C239" s="18" t="s">
         <v>384</v>
       </c>
@@ -11709,8 +11707,8 @@
       <c r="L239" s="18"/>
     </row>
     <row r="240" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A240" s="70"/>
-      <c r="B240" s="68"/>
+      <c r="A240" s="77"/>
+      <c r="B240" s="65"/>
       <c r="C240" s="18" t="s">
         <v>377</v>
       </c>
@@ -11738,8 +11736,8 @@
       <c r="Q240" s="19"/>
     </row>
     <row r="241" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="70"/>
-      <c r="B241" s="66" t="s">
+      <c r="A241" s="77"/>
+      <c r="B241" s="63" t="s">
         <v>446</v>
       </c>
       <c r="C241" s="18" t="s">
@@ -11766,8 +11764,8 @@
       <c r="L241" s="18"/>
     </row>
     <row r="242" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A242" s="70"/>
-      <c r="B242" s="67"/>
+      <c r="A242" s="77"/>
+      <c r="B242" s="64"/>
       <c r="C242" s="18" t="s">
         <v>383</v>
       </c>
@@ -11792,8 +11790,8 @@
       <c r="L242" s="18"/>
     </row>
     <row r="243" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A243" s="70"/>
-      <c r="B243" s="67"/>
+      <c r="A243" s="77"/>
+      <c r="B243" s="64"/>
       <c r="C243" s="18" t="s">
         <v>385</v>
       </c>
@@ -11818,8 +11816,8 @@
       <c r="L243" s="18"/>
     </row>
     <row r="244" spans="1:17" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" s="70"/>
-      <c r="B244" s="67"/>
+      <c r="A244" s="77"/>
+      <c r="B244" s="64"/>
       <c r="C244" s="18" t="s">
         <v>384</v>
       </c>
@@ -11844,8 +11842,8 @@
       <c r="L244" s="18"/>
     </row>
     <row r="245" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A245" s="71"/>
-      <c r="B245" s="68"/>
+      <c r="A245" s="78"/>
+      <c r="B245" s="65"/>
       <c r="C245" s="18" t="s">
         <v>377</v>
       </c>
@@ -11874,13 +11872,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A24:A42"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A199:A210"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="A236:A245"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A223:A232"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="A215:A222"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A150:A160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="A161:A198"/>
     <mergeCell ref="A43:A62"/>
     <mergeCell ref="B57:B62"/>
     <mergeCell ref="A128:A131"/>
@@ -11897,27 +11909,13 @@
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="A132:A149"/>
     <mergeCell ref="B136:B139"/>
-    <mergeCell ref="A150:A160"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="A161:A198"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="A199:A210"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="A236:A245"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A223:A232"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="A215:A222"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A24:A42"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F43" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Docs/reestr-prav-dostupa-27.01.25_v10.xlsx
+++ b/Docs/reestr-prav-dostupa-27.01.25_v10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B6519-C12C-40B4-AA1E-6EF8FBABAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEBD547-1C61-4C86-976C-28971A9C2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="671">
   <si>
     <t>ФИО сотрудника, имеющего права доступа для редактирования</t>
   </si>
@@ -1907,9 +1907,6 @@
   </si>
   <si>
     <t>Петрашова Н.В..А., Черемисина Н.В.</t>
-  </si>
-  <si>
-    <t>Зам. диреткора по УР и ЦТ - Сведения об обр. орг-ции - Сведения о наличии библиотек, объекто спорта, условиях питания и охраны здоровья обучающихся</t>
   </si>
   <si>
     <t>Роли</t>
@@ -2195,6 +2192,18 @@
   </si>
   <si>
     <t>Формируется автоматически (ОВЗ-Помещения+ОВЗ-Оборудование)</t>
+  </si>
+  <si>
+    <t>ОВЗ - Информация о наличии специальных технических средств обучения коллективного и индивидуального пользования (документ)</t>
+  </si>
+  <si>
+    <t>https://ачии.рф/Documents?doctype=InfONalichiiSpecTehnSredstvObucheniyaKollektivnIIndividPolzovaniya</t>
+  </si>
+  <si>
+    <t>Зам. директора по УР и ЦТ - Сведения об обр. орг-ции - Сведения о наличии библиотек, объектов спорта, условиях питания и охраны здоровья обучающихся</t>
+  </si>
+  <si>
+    <t>ОВЗ - Сведения о наличии библиотек, объектов спорта, условиях питания и охраны здоровья обучающихся</t>
   </si>
 </sst>
 </file>
@@ -5411,8 +5420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5453,7 +5462,7 @@
         <v>463</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>243</v>
@@ -5648,7 +5657,7 @@
         <v>472</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>586</v>
@@ -5676,7 +5685,7 @@
         <v>473</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>586</v>
@@ -6064,7 +6073,7 @@
         <v>478</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>198</v>
@@ -6090,7 +6099,7 @@
         <v>478</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>198</v>
@@ -6116,7 +6125,7 @@
         <v>478</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>198</v>
@@ -6142,7 +6151,7 @@
         <v>478</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>198</v>
@@ -6168,7 +6177,7 @@
         <v>478</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>198</v>
@@ -6194,7 +6203,7 @@
         <v>478</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>198</v>
@@ -6220,7 +6229,7 @@
         <v>478</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>198</v>
@@ -6242,7 +6251,7 @@
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>588</v>
@@ -6270,7 +6279,7 @@
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>589</v>
@@ -6298,7 +6307,7 @@
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>590</v>
@@ -6326,7 +6335,7 @@
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>589</v>
@@ -6354,7 +6363,7 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>589</v>
@@ -6382,7 +6391,7 @@
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>589</v>
@@ -6949,7 +6958,7 @@
         <v>110</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>221</v>
@@ -6974,7 +6983,7 @@
         <v>515</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>282</v>
@@ -6996,10 +7005,10 @@
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>628</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>629</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>106</v>
@@ -7052,7 +7061,7 @@
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>512</v>
@@ -7110,10 +7119,10 @@
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>110</v>
@@ -7125,7 +7134,7 @@
         <v>221</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -7138,10 +7147,10 @@
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>110</v>
@@ -7153,7 +7162,7 @@
         <v>221</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
@@ -7166,10 +7175,10 @@
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>110</v>
@@ -7181,7 +7190,7 @@
         <v>221</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
@@ -7194,10 +7203,10 @@
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>110</v>
@@ -7209,7 +7218,7 @@
         <v>221</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
@@ -7222,10 +7231,10 @@
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>110</v>
@@ -7248,10 +7257,10 @@
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>110</v>
@@ -7274,10 +7283,10 @@
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>110</v>
@@ -7300,11 +7309,11 @@
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>456</v>
@@ -7324,11 +7333,11 @@
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>456</v>
@@ -7348,7 +7357,7 @@
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>470</v>
@@ -7381,7 +7390,7 @@
         <v>110</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>221</v>
@@ -7726,7 +7735,7 @@
         <v>417</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
@@ -7745,7 +7754,7 @@
         <v>221</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
@@ -7758,7 +7767,7 @@
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F87" s="26" t="s">
         <v>576</v>
@@ -7784,17 +7793,17 @@
         <v>301</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>533</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>281</v>
@@ -7803,7 +7812,7 @@
         <v>208</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
@@ -7816,13 +7825,13 @@
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="F89" s="26" t="s">
-        <v>654</v>
-      </c>
       <c r="G89" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>281</v>
@@ -7840,14 +7849,14 @@
         <v>302</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
         <v>582</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>110</v>
@@ -7859,7 +7868,7 @@
         <v>221</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
@@ -7909,7 +7918,7 @@
         <v>517</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>456</v>
@@ -7934,7 +7943,7 @@
         <v>517</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>456</v>
@@ -7959,7 +7968,7 @@
         <v>517</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>456</v>
@@ -7984,7 +7993,7 @@
         <v>517</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>456</v>
@@ -8009,7 +8018,7 @@
         <v>517</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>456</v>
@@ -8034,7 +8043,7 @@
         <v>517</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H97" s="18" t="s">
         <v>456</v>
@@ -8059,7 +8068,7 @@
         <v>517</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>456</v>
@@ -8084,7 +8093,7 @@
         <v>517</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H99" s="18" t="s">
         <v>456</v>
@@ -8103,13 +8112,13 @@
         <v>310</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>521</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H100" s="25" t="s">
         <v>530</v>
@@ -8131,7 +8140,7 @@
         <v>517</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>456</v>
@@ -8178,7 +8187,7 @@
         <v>517</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>456</v>
@@ -8205,7 +8214,7 @@
         <v>517</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>456</v>
@@ -8230,7 +8239,7 @@
         <v>517</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>456</v>
@@ -8255,7 +8264,7 @@
         <v>517</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>456</v>
@@ -8280,7 +8289,7 @@
         <v>517</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H107" s="18" t="s">
         <v>456</v>
@@ -8305,7 +8314,7 @@
         <v>517</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H108" s="18" t="s">
         <v>456</v>
@@ -8330,7 +8339,7 @@
         <v>517</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H109" s="18" t="s">
         <v>456</v>
@@ -8355,7 +8364,7 @@
         <v>517</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H110" s="18" t="s">
         <v>456</v>
@@ -8380,7 +8389,7 @@
         <v>517</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H111" s="18" t="s">
         <v>456</v>
@@ -8399,13 +8408,13 @@
         <v>310</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F112" s="26" t="s">
         <v>521</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H112" s="18" t="s">
         <v>530</v>
@@ -8430,7 +8439,7 @@
         <v>517</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H113" s="18" t="s">
         <v>456</v>
@@ -8658,13 +8667,13 @@
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F123" s="26" t="s">
         <v>522</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H123" s="18" t="s">
         <v>282</v>
@@ -8684,13 +8693,13 @@
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>522</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H124" s="18" t="s">
         <v>282</v>
@@ -8709,13 +8718,13 @@
         <v>287</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>522</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H125" s="18" t="s">
         <v>282</v>
@@ -8732,13 +8741,13 @@
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F126" s="26" t="s">
         <v>522</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H126" s="18" t="s">
         <v>282</v>
@@ -8764,7 +8773,7 @@
         <v>523</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H127" s="18" t="s">
         <v>282</v>
@@ -8812,7 +8821,7 @@
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F129" s="18" t="s">
         <v>470</v>
@@ -8838,7 +8847,7 @@
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F130" s="18" t="s">
         <v>470</v>
@@ -8864,7 +8873,7 @@
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
       <c r="E131" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>470</v>
@@ -9328,7 +9337,7 @@
         <v>361</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F150" s="26" t="s">
         <v>552</v>
@@ -9349,7 +9358,7 @@
         <v>362</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F151" s="26" t="s">
         <v>552</v>
@@ -9372,10 +9381,10 @@
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="F152" s="26" t="s">
         <v>611</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>612</v>
       </c>
       <c r="G152" s="18" t="s">
         <v>158</v>
@@ -9407,10 +9416,10 @@
         <v>100</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
@@ -9433,10 +9442,10 @@
         <v>100</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
@@ -9459,10 +9468,10 @@
         <v>100</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J155" s="18"/>
       <c r="K155" s="18"/>
@@ -9485,10 +9494,10 @@
         <v>100</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J156" s="18"/>
       <c r="K156" s="18"/>
@@ -9500,19 +9509,19 @@
         <v>368</v>
       </c>
       <c r="E157" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F157" s="18" t="s">
         <v>614</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>615</v>
       </c>
       <c r="G157" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9575,10 +9584,10 @@
       <c r="C160" s="27"/>
       <c r="D160" s="18"/>
       <c r="E160" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G160" s="18" t="s">
         <v>158</v>
@@ -9605,10 +9614,10 @@
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G161" s="18" t="s">
         <v>110</v>
@@ -9633,10 +9642,10 @@
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G162" s="18" t="s">
         <v>110</v>
@@ -9661,7 +9670,7 @@
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>558</v>
@@ -9689,13 +9698,13 @@
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H164" s="18" t="s">
         <v>412</v>
@@ -9706,7 +9715,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="18"/>
       <c r="L164" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
@@ -9724,10 +9733,10 @@
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G165" s="18" t="s">
         <v>110</v>
@@ -9752,10 +9761,10 @@
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>110</v>
@@ -9780,7 +9789,7 @@
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F167" s="26" t="s">
         <v>558</v>
@@ -9808,13 +9817,13 @@
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F168" s="26" t="s">
         <v>558</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H168" s="18" t="s">
         <v>412</v>
@@ -9825,7 +9834,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="18"/>
       <c r="L168" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
@@ -10105,13 +10114,13 @@
       <c r="C179" s="18"/>
       <c r="D179" s="37"/>
       <c r="E179" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="F179" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="F179" s="26" t="s">
-        <v>666</v>
-      </c>
       <c r="G179" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H179" s="18" t="s">
         <v>412</v>
@@ -10122,7 +10131,7 @@
       <c r="J179" s="18"/>
       <c r="K179" s="18"/>
       <c r="L179" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M179" s="19"/>
       <c r="N179" s="19"/>
@@ -10156,10 +10165,12 @@
       <c r="C181" s="18"/>
       <c r="D181" s="37"/>
       <c r="E181" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
+      <c r="G181" s="18" t="s">
+        <v>661</v>
+      </c>
       <c r="H181" s="18" t="s">
         <v>412</v>
       </c>
@@ -10169,7 +10180,7 @@
       <c r="J181" s="18"/>
       <c r="K181" s="18"/>
       <c r="L181" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M181" s="19"/>
       <c r="N181" s="19"/>
@@ -10209,18 +10220,18 @@
         <v>469</v>
       </c>
       <c r="G183" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="H183" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="H183" s="18" t="s">
-        <v>650</v>
-      </c>
       <c r="I183" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J183" s="18"/>
       <c r="K183" s="18"/>
       <c r="L183" s="91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M183" s="19"/>
       <c r="N183" s="19"/>
@@ -10242,13 +10253,13 @@
         <v>469</v>
       </c>
       <c r="G184" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="H184" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="H184" s="18" t="s">
-        <v>650</v>
-      </c>
       <c r="I184" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J184" s="18"/>
       <c r="K184" s="18"/>
@@ -10349,19 +10360,21 @@
         <v>280</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="77"/>
       <c r="B190" s="18" t="s">
         <v>398</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18" t="s">
-        <v>469</v>
+      <c r="D190" s="37"/>
+      <c r="E190" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>668</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="H190" s="18" t="s">
         <v>412</v>
@@ -10372,7 +10385,7 @@
       <c r="J190" s="18"/>
       <c r="K190" s="18"/>
       <c r="L190" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M190" s="19"/>
       <c r="N190" s="19"/>
@@ -10394,7 +10407,7 @@
         <v>561</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H191" s="18" t="s">
         <v>182</v>
@@ -10420,7 +10433,7 @@
         <v>561</v>
       </c>
       <c r="G192" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H192" s="18" t="s">
         <v>279</v>
@@ -10448,7 +10461,7 @@
         <v>561</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H193" s="18" t="s">
         <v>182</v>
@@ -10474,7 +10487,7 @@
         <v>561</v>
       </c>
       <c r="G194" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H194" s="18" t="s">
         <v>412</v>
@@ -10500,7 +10513,7 @@
         <v>561</v>
       </c>
       <c r="G195" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H195" s="18" t="s">
         <v>279</v>
@@ -10528,7 +10541,7 @@
         <v>561</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H196" s="18" t="s">
         <v>279</v>
@@ -10556,7 +10569,7 @@
         <v>561</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H197" s="18" t="s">
         <v>412</v>
@@ -10576,10 +10589,10 @@
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
       <c r="E198" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="F198" s="26" t="s">
         <v>628</v>
-      </c>
-      <c r="F198" s="26" t="s">
-        <v>629</v>
       </c>
       <c r="G198" s="18" t="s">
         <v>106</v>
@@ -10625,7 +10638,7 @@
       </c>
       <c r="K199" s="18"/>
       <c r="L199" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M199" s="19"/>
       <c r="N199" s="19"/>
@@ -10641,13 +10654,13 @@
       </c>
       <c r="D200" s="18"/>
       <c r="E200" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>545</v>
       </c>
       <c r="G200" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H200" s="18" t="s">
         <v>282</v>
@@ -10667,13 +10680,13 @@
       </c>
       <c r="D201" s="18"/>
       <c r="E201" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>515</v>
       </c>
       <c r="G201" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H201" s="18" t="s">
         <v>282</v>
@@ -10753,7 +10766,7 @@
         <v>561</v>
       </c>
       <c r="G204" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H204" s="18" t="s">
         <v>282</v>
@@ -10786,7 +10799,7 @@
         <v>561</v>
       </c>
       <c r="G205" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H205" s="18" t="s">
         <v>282</v>
@@ -10819,7 +10832,7 @@
         <v>561</v>
       </c>
       <c r="G206" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H206" s="18" t="s">
         <v>282</v>
@@ -10852,7 +10865,7 @@
         <v>561</v>
       </c>
       <c r="G207" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H207" s="18" t="s">
         <v>282</v>
@@ -10885,7 +10898,7 @@
         <v>561</v>
       </c>
       <c r="G208" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H208" s="18" t="s">
         <v>282</v>
@@ -10918,7 +10931,7 @@
         <v>561</v>
       </c>
       <c r="G209" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H209" s="18" t="s">
         <v>282</v>
@@ -10945,10 +10958,10 @@
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
       <c r="E210" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="F210" s="26" t="s">
         <v>628</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>629</v>
       </c>
       <c r="G210" s="18" t="s">
         <v>106</v>
@@ -11085,7 +11098,7 @@
         <v>593</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J215" s="18"/>
       <c r="K215" s="18"/>
@@ -11111,7 +11124,7 @@
         <v>593</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J216" s="18"/>
       <c r="K216" s="18"/>
@@ -11137,7 +11150,7 @@
         <v>593</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J217" s="18"/>
       <c r="K217" s="18"/>
@@ -11163,7 +11176,7 @@
         <v>593</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J218" s="18"/>
       <c r="K218" s="18"/>
@@ -11179,10 +11192,10 @@
       </c>
       <c r="D219" s="18"/>
       <c r="E219" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F219" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G219" s="18" t="s">
         <v>106</v>
@@ -11191,7 +11204,7 @@
         <v>593</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J219" s="18"/>
       <c r="K219" s="18"/>
@@ -11205,10 +11218,10 @@
       </c>
       <c r="D220" s="18"/>
       <c r="E220" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F220" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G220" s="18" t="s">
         <v>106</v>
@@ -11217,7 +11230,7 @@
         <v>593</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J220" s="18"/>
       <c r="K220" s="18"/>
@@ -11231,10 +11244,10 @@
       </c>
       <c r="D221" s="18"/>
       <c r="E221" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>106</v>
@@ -11243,7 +11256,7 @@
         <v>593</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J221" s="18"/>
       <c r="K221" s="18"/>
@@ -11610,13 +11623,13 @@
       </c>
       <c r="D236" s="18"/>
       <c r="E236" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F236" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G236" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H236" s="18" t="s">
         <v>182</v>
@@ -11636,13 +11649,13 @@
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F237" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G237" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H237" s="18" t="s">
         <v>182</v>
@@ -11662,13 +11675,13 @@
       </c>
       <c r="D238" s="18"/>
       <c r="E238" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F238" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G238" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H238" s="18" t="s">
         <v>182</v>
@@ -11688,13 +11701,13 @@
       </c>
       <c r="D239" s="18"/>
       <c r="E239" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F239" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H239" s="18" t="s">
         <v>182</v>
@@ -11727,7 +11740,7 @@
       <c r="J240" s="18"/>
       <c r="K240" s="18"/>
       <c r="L240" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M240" s="19"/>
       <c r="N240" s="19"/>
@@ -11745,13 +11758,13 @@
       </c>
       <c r="D241" s="18"/>
       <c r="E241" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F241" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H241" s="18" t="s">
         <v>182</v>
@@ -11771,13 +11784,13 @@
       </c>
       <c r="D242" s="18"/>
       <c r="E242" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F242" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H242" s="18" t="s">
         <v>182</v>
@@ -11797,13 +11810,13 @@
       </c>
       <c r="D243" s="18"/>
       <c r="E243" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F243" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G243" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H243" s="18" t="s">
         <v>182</v>
@@ -11823,13 +11836,13 @@
       </c>
       <c r="D244" s="18"/>
       <c r="E244" s="18" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="F244" s="26" t="s">
         <v>559</v>
       </c>
       <c r="G244" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H244" s="18" t="s">
         <v>182</v>
@@ -11847,12 +11860,16 @@
       <c r="C245" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="18"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="18" t="s">
+        <v>670</v>
+      </c>
       <c r="F245" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G245" s="18"/>
+      <c r="G245" s="18" t="s">
+        <v>661</v>
+      </c>
       <c r="H245" s="18" t="s">
         <v>412</v>
       </c>
@@ -11862,7 +11879,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="18"/>
       <c r="L245" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M245" s="19"/>
       <c r="N245" s="19"/>
@@ -12089,9 +12106,10 @@
     <hyperlink ref="F89" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
     <hyperlink ref="F61" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
     <hyperlink ref="F179" r:id="rId171" xr:uid="{98E4F7CD-BD30-4D94-A982-8BCFC2291B6B}"/>
+    <hyperlink ref="F190" r:id="rId172" xr:uid="{E3381ED9-020D-4AB7-8665-7BCC8167857E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId172"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
 </worksheet>
 </file>
 
